--- a/tests/validation_tests_battery/ETC_cal_detect.xlsx
+++ b/tests/validation_tests_battery/ETC_cal_detect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ealei/Coding/pyEDITH/tests/validation_tests_battery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1B23A-2D75-0940-8479-628136ACFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D3C925-384D-BF4D-9E71-2033D02A3FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-5840" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">This is calculated as 1/CR_det, where CR_det is the peak count rate per pixel assuming a planet 10x as bright as an Earth twin at quadrature at the IWA. Note that for EBS &amp; ExoSIMS, this is an input to the code and they had to adjust it to the value AYO is using
 </t>
@@ -586,9 +585,6 @@
     <t>λ/D, where D is the circumscribed diameter</t>
   </si>
   <si>
-    <t>Ω_core</t>
-  </si>
-  <si>
     <t>Solid angle of photometric aperture</t>
   </si>
   <si>
@@ -935,6 +931,9 @@
   <si>
     <t>PSF truncation ratio (used by AYO)</t>
   </si>
+  <si>
+    <t>omega_core</t>
+  </si>
 </sst>
 </file>
 
@@ -1159,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1210,6 +1209,7 @@
     <xf numFmtId="11" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1218,7 +1218,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,10 +1479,10 @@
   <dimension ref="A1:AB1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1495,11 +1495,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1527,11 +1527,11 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1559,11 +1559,11 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1593,20 +1593,20 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="B5" s="1"/>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="39" spans="1:28" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40">
@@ -2986,6 +2986,7 @@
       <c r="H39" s="42"/>
       <c r="I39" s="38"/>
       <c r="J39" s="40">
+        <f>0.373</f>
         <v>0.373</v>
       </c>
       <c r="K39" s="41"/>
@@ -3001,14 +3002,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
+      <c r="A40" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="9">
         <v>2.263674</v>
@@ -3043,10 +3044,10 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="9">
@@ -3082,13 +3083,13 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="9">
         <v>3.7748400000000001E-14</v>
@@ -3123,13 +3124,13 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="9">
         <v>9.5421530000000008</v>
@@ -3164,10 +3165,10 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="9">
@@ -3203,10 +3204,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
@@ -3242,13 +3243,13 @@
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
@@ -3271,10 +3272,10 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
@@ -3300,10 +3301,10 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>102</v>
@@ -3353,10 +3354,10 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -3387,7 +3388,7 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -3442,13 +3443,13 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="9">
         <v>2.3116399999999999E-2</v>
@@ -3483,7 +3484,7 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -3538,13 +3539,13 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9">
         <v>9.3859739999999995E-5</v>
@@ -3579,13 +3580,13 @@
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9">
         <v>1.6887019999999999E-2</v>
@@ -3620,13 +3621,13 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="9">
         <v>0.1880163</v>
@@ -3661,13 +3662,13 @@
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -3702,13 +3703,13 @@
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="9">
         <v>3.3749930000000002E-3</v>
@@ -3743,13 +3744,13 @@
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="9">
         <v>2.7219320000000002E-6</v>
@@ -3806,7 +3807,7 @@
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -3838,16 +3839,16 @@
     </row>
     <row r="62" spans="1:28" ht="13">
       <c r="A62" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28">
-        <f t="shared" ref="D62:H62" si="4">D17^2*(D52+2*SUM(D54:D58))/(D52^2-D17^2*D59^2)</f>
+        <f>D17^2*(D52+2*SUM(D54:D58))/(D52^2-D17^2*D59^2)</f>
         <v>40333.989366669251</v>
       </c>
       <c r="E62" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D62:H62" si="4">E17^2*(E52+2*SUM(E54:E58))/(E52^2-E17^2*E59^2)</f>
         <v>52344.111122062095</v>
       </c>
       <c r="F62" s="28">
@@ -3893,16 +3894,16 @@
     </row>
     <row r="63" spans="1:28" ht="13">
       <c r="A63" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="28">
-        <f t="shared" ref="D63:H63" si="6">D17^2*(SUM(D54:D58))/(D52^2-D17^2*D59^2)</f>
+        <f>D17^2*(SUM(D54:D58))/(D52^2-D17^2*D59^2)</f>
         <v>19107.140352871225</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D63:H63" si="6">E17^2*(SUM(E54:E58))/(E52^2-E17^2*E59^2)</f>
         <v>25032.916136226875</v>
       </c>
       <c r="F63" s="28">
@@ -3955,10 +3956,10 @@
     </row>
     <row r="64" spans="1:28" ht="13">
       <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>56</v>
@@ -3973,7 +3974,7 @@
         <v>24348.607800000002</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
@@ -3998,10 +3999,10 @@
     </row>
     <row r="65" spans="1:21" ht="13">
       <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>56</v>
@@ -11844,11 +11845,11 @@
   </sheetPr>
   <dimension ref="A1:AB1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L66" sqref="J8:L66"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11860,11 +11861,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -11892,11 +11893,11 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -11924,11 +11925,11 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -11958,20 +11959,20 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="B5" s="1"/>
@@ -12027,7 +12028,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>17</v>
@@ -12042,7 +12043,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>17</v>
@@ -13005,10 +13006,10 @@
     </row>
     <row r="39" spans="1:28" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40">
@@ -13020,6 +13021,7 @@
       <c r="H39" s="42"/>
       <c r="I39" s="38"/>
       <c r="J39" s="40">
+        <f>0.401</f>
         <v>0.40100000000000002</v>
       </c>
       <c r="K39" s="41"/>
@@ -13035,14 +13037,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
+      <c r="A40" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="9">
         <v>2.2595170000000002</v>
@@ -13067,10 +13069,10 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="9">
@@ -13096,13 +13098,13 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="9">
         <v>6.8940699999999995E-14</v>
@@ -13127,13 +13129,13 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="9">
         <v>9.3820329999999998</v>
@@ -13158,10 +13160,10 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="9">
@@ -13187,10 +13189,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
@@ -13226,13 +13228,13 @@
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="8">
@@ -13263,10 +13265,10 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9"/>
@@ -13300,10 +13302,10 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>102</v>
@@ -13342,7 +13344,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="48"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="9"/>
       <c r="H49" s="7"/>
       <c r="J49" s="9"/>
@@ -13352,10 +13354,10 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -13385,7 +13387,7 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -13440,13 +13442,13 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="9">
         <v>2.756076E-2</v>
@@ -13471,7 +13473,7 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -13526,13 +13528,13 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9">
         <v>1.07748E-4</v>
@@ -13557,13 +13559,13 @@
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9">
         <v>2.697039E-2</v>
@@ -13588,13 +13590,13 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="9">
         <v>0.16221569999999999</v>
@@ -13619,7 +13621,7 @@
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -13666,13 +13668,13 @@
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="9">
         <v>1.5477650000000001E-2</v>
@@ -13697,13 +13699,13 @@
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="9">
         <v>3.3132050000000001E-3</v>
@@ -13728,13 +13730,13 @@
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="9">
         <v>3.1246909999999999E-6</v>
@@ -13771,7 +13773,7 @@
     </row>
     <row r="62" spans="1:28" ht="13">
       <c r="A62" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -13802,7 +13804,7 @@
     </row>
     <row r="63" spans="1:28" ht="13">
       <c r="A63" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -13857,7 +13859,7 @@
     </row>
     <row r="64" spans="1:28" ht="13">
       <c r="A64" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -13919,10 +13921,10 @@
     </row>
     <row r="65" spans="1:14" ht="13">
       <c r="A65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>56</v>
@@ -13950,10 +13952,10 @@
     </row>
     <row r="66" spans="1:14" ht="13">
       <c r="A66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>56</v>
@@ -21796,10 +21798,10 @@
   <dimension ref="A1:AB1039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -21812,11 +21814,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -21844,11 +21846,11 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -21876,11 +21878,11 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -21910,20 +21912,20 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="B5" s="1"/>
@@ -21979,7 +21981,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>17</v>
@@ -21994,7 +21996,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>17</v>
@@ -22970,10 +22972,10 @@
     </row>
     <row r="39" spans="1:28" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40">
@@ -22985,6 +22987,7 @@
       <c r="H39" s="42"/>
       <c r="I39" s="38"/>
       <c r="J39" s="40">
+        <f>0.373</f>
         <v>0.373</v>
       </c>
       <c r="K39" s="41"/>
@@ -23000,14 +23003,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
+      <c r="A40" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="9">
         <v>2.263674</v>
@@ -23033,10 +23036,10 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="37">
@@ -23062,13 +23065,13 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="35">
         <v>3.9033180000000001E-14</v>
@@ -23093,13 +23096,13 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="35">
         <v>9.5421530000000008</v>
@@ -23124,10 +23127,10 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="9">
@@ -23153,10 +23156,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="35">
@@ -23192,13 +23195,13 @@
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
@@ -23221,10 +23224,10 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
@@ -23252,10 +23255,10 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>102</v>
@@ -23297,10 +23300,10 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -23330,7 +23333,7 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -23385,13 +23388,13 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="35">
         <v>3.4337630000000001E-2</v>
@@ -23416,7 +23419,7 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -23471,13 +23474,13 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="35">
         <v>8.6477170000000004E-5</v>
@@ -23502,13 +23505,13 @@
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9">
         <v>3.2943559999999997E-2</v>
@@ -23533,13 +23536,13 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="9">
         <v>0.1684678</v>
@@ -23564,13 +23567,13 @@
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -23595,13 +23598,13 @@
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="9">
         <v>3.8136289999999998E-3</v>
@@ -23626,13 +23629,13 @@
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="35">
         <v>2.5078380000000001E-6</v>
@@ -23669,7 +23672,7 @@
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -23700,7 +23703,7 @@
     </row>
     <row r="62" spans="1:28" ht="13">
       <c r="A62" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -23755,7 +23758,7 @@
     </row>
     <row r="63" spans="1:28" ht="13">
       <c r="A63" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -23817,10 +23820,10 @@
     </row>
     <row r="64" spans="1:28" ht="13">
       <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>56</v>
@@ -23848,10 +23851,10 @@
     </row>
     <row r="65" spans="1:14" ht="13">
       <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>56</v>
@@ -31702,7 +31705,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31714,11 +31717,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -31746,11 +31749,11 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -31778,11 +31781,11 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -31812,20 +31815,20 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="B5" s="1"/>
@@ -31881,7 +31884,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>17</v>
@@ -31896,7 +31899,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>17</v>
@@ -32884,10 +32887,10 @@
     </row>
     <row r="39" spans="1:28" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40">
@@ -32899,6 +32902,7 @@
       <c r="H39" s="42"/>
       <c r="I39" s="38"/>
       <c r="J39" s="40">
+        <f>0.427</f>
         <v>0.42699999999999999</v>
       </c>
       <c r="K39" s="41"/>
@@ -32914,14 +32918,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
+      <c r="A40" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="9">
         <v>2.2592370000000002</v>
@@ -32947,10 +32951,10 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="9">
@@ -32976,13 +32980,13 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="9">
         <v>3.7737199999999998E-14</v>
@@ -33007,13 +33011,13 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="9">
         <v>8.5720419999999997</v>
@@ -33038,10 +33042,10 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="9">
@@ -33067,10 +33071,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
@@ -33106,13 +33110,13 @@
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
@@ -33135,10 +33139,10 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
@@ -33166,10 +33170,10 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>102</v>
@@ -33211,10 +33215,10 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -33244,7 +33248,7 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -33299,13 +33303,13 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="9">
         <v>3.0030250000000001E-2</v>
@@ -33330,7 +33334,7 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -33385,13 +33389,13 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9">
         <v>3.9157869999999998E-5</v>
@@ -33416,13 +33420,13 @@
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9">
         <v>2.0842739999999998E-2</v>
@@ -33447,13 +33451,13 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="9">
         <v>0.1226294</v>
@@ -33478,13 +33482,13 @@
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -33509,13 +33513,13 @@
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="9">
         <v>3.2896829999999998E-3</v>
@@ -33540,13 +33544,13 @@
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="9">
         <v>1.135578E-6</v>
@@ -33583,7 +33587,7 @@
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -33614,7 +33618,7 @@
     </row>
     <row r="62" spans="1:28" ht="13">
       <c r="A62" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -33669,7 +33673,7 @@
     </row>
     <row r="63" spans="1:28" ht="13">
       <c r="A63" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -33731,10 +33735,10 @@
     </row>
     <row r="64" spans="1:28" ht="13">
       <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>56</v>
@@ -33762,10 +33766,10 @@
     </row>
     <row r="65" spans="1:14" ht="13">
       <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>56</v>
@@ -41607,11 +41611,11 @@
   </sheetPr>
   <dimension ref="A1:AB1039"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -41623,11 +41627,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -41655,11 +41659,11 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -41687,11 +41691,11 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -41721,20 +41725,20 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="B5" s="1"/>
@@ -41784,13 +41788,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>17</v>
@@ -41805,7 +41809,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>17</v>
@@ -41849,7 +41853,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -42772,10 +42776,10 @@
     </row>
     <row r="39" spans="1:28" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="40">
@@ -42787,6 +42791,7 @@
       <c r="H39" s="42"/>
       <c r="I39" s="38"/>
       <c r="J39" s="40">
+        <f>0.4135</f>
         <v>0.41349999999999998</v>
       </c>
       <c r="K39" s="41"/>
@@ -42802,14 +42807,14 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" t="s">
+      <c r="A40" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="9">
         <v>2.2602799999999998</v>
@@ -42835,10 +42840,10 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="9">
@@ -42864,13 +42869,13 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="9">
         <v>9.2887560000000006E-14</v>
@@ -42895,13 +42900,13 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="9">
         <v>8.8996180000000003</v>
@@ -42926,10 +42931,10 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="9">
@@ -42955,10 +42960,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
@@ -42994,13 +42999,13 @@
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
@@ -43023,10 +43028,10 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
@@ -43054,10 +43059,10 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>102</v>
@@ -43099,10 +43104,10 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -43132,7 +43137,7 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -43187,13 +43192,13 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="9">
         <v>5.4664530000000003E-2</v>
@@ -43218,7 +43223,7 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -43273,13 +43278,13 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9">
         <v>6.8260519999999996E-5</v>
@@ -43304,13 +43309,13 @@
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9">
         <v>2.50733E-2</v>
@@ -43335,13 +43340,13 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="9">
         <v>8.4216879999999994E-2</v>
@@ -43366,13 +43371,13 @@
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -43397,13 +43402,13 @@
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="9">
         <v>4.4846189999999996E-3</v>
@@ -43428,13 +43433,13 @@
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="9">
         <v>1.9795549999999999E-6</v>
@@ -43471,7 +43476,7 @@
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -43502,7 +43507,7 @@
     </row>
     <row r="62" spans="1:28" ht="13">
       <c r="A62" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -43557,7 +43562,7 @@
     </row>
     <row r="63" spans="1:28" ht="13">
       <c r="A63" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -43619,10 +43624,10 @@
     </row>
     <row r="64" spans="1:28" ht="13">
       <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>56</v>
@@ -43650,10 +43655,10 @@
     </row>
     <row r="65" spans="1:14" ht="13">
       <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>56</v>

--- a/tests/validation_tests_battery/ETC_cal_detect.xlsx
+++ b/tests/validation_tests_battery/ETC_cal_detect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ealei/Coding/pyEDITH/tests/validation_tests_battery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D3C925-384D-BF4D-9E71-2033D02A3FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D39BC-A2EC-0341-B89A-9CDD436A0BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-5840" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1482,7 +1482,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11849,7 +11849,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -21801,7 +21801,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31701,11 +31701,11 @@
   </sheetPr>
   <dimension ref="A1:AB1039"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -41611,8 +41611,8 @@
   </sheetPr>
   <dimension ref="A1:AB1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
